--- a/biology/Zoologie/Agama_bottegi/Agama_bottegi.xlsx
+++ b/biology/Zoologie/Agama_bottegi/Agama_bottegi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama bottegi est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama bottegi est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Somalie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Somalie. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vittorio Bottego[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vittorio Bottego.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1898 "1897" : Concluding report on the late Capt. Bottego’s collection of reptiles and batrachians from Somaliland and British East Africa. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 18, p. 715-723 (texte intégral).</t>
         </is>
